--- a/3) Январь/912/912 Разработка моб приложений_январь.xlsx
+++ b/3) Январь/912/912 Разработка моб приложений_январь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\3) Январь\912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA2A16-7CF8-4943-BE76-E21E3CFF5B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FBECD2-D2F8-4E9A-B119-748F350FB17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4185" windowWidth="23040" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="47">
   <si>
     <t>ФИО</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>Лаба 8</t>
+  </si>
+  <si>
+    <t>Лекция 2.3</t>
+  </si>
+  <si>
+    <t>Лекция 2.4</t>
+  </si>
+  <si>
+    <t>Лекция 2.5</t>
+  </si>
+  <si>
+    <t>Лекция 3.1</t>
+  </si>
+  <si>
+    <t>Лекция 3.2</t>
+  </si>
+  <si>
+    <t>Практик 2.8</t>
+  </si>
+  <si>
+    <t>Практика 2.9</t>
+  </si>
+  <si>
+    <t>Практика 2.10</t>
   </si>
 </sst>
 </file>
@@ -242,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,8 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +592,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45670</v>
       </c>
       <c r="C1" s="1">
@@ -640,13 +662,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="I2">
@@ -669,13 +691,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="I3" t="s">
@@ -698,10 +720,10 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
@@ -727,13 +749,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="I5">
@@ -756,13 +778,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="I6">
@@ -785,13 +807,13 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="I7">
@@ -814,13 +836,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
@@ -843,13 +865,13 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
@@ -872,13 +894,13 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
       <c r="I10" t="s">
@@ -901,13 +923,13 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="I11" t="s">
@@ -930,13 +952,13 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="I12" t="s">
@@ -959,13 +981,13 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="I13" t="s">
@@ -988,13 +1010,13 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
       <c r="I14">
@@ -1017,13 +1039,13 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
       <c r="I15" t="s">
@@ -1046,13 +1068,13 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
       <c r="I16">
@@ -1075,13 +1097,13 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="I17">
@@ -1104,13 +1126,13 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="I18" t="s">
@@ -1133,13 +1155,13 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="I19">
@@ -1162,13 +1184,13 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="I20" t="s">
@@ -1191,13 +1213,13 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
         <v>35</v>
       </c>
       <c r="I21" t="s">
@@ -1220,13 +1242,13 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="I22">
@@ -1249,13 +1271,13 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
       <c r="I23">
@@ -1278,13 +1300,13 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="I24" t="s">
@@ -1307,13 +1329,13 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>35</v>
       </c>
       <c r="I25" t="s">
@@ -1336,13 +1358,13 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
         <v>35</v>
       </c>
       <c r="I26">
@@ -1365,13 +1387,13 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
         <v>34</v>
       </c>
       <c r="I27" t="s">
@@ -1394,13 +1416,13 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="I28">
@@ -1423,13 +1445,13 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
         <v>34</v>
       </c>
       <c r="I29">
@@ -1505,10 +1527,82 @@
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
